--- a/Desarrollo/SVM/Gestión/SVM-CP.xlsx
+++ b/Desarrollo/SVM/Gestión/SVM-CP.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="154">
   <si>
     <t>CRONOGRAMA DEL PROYECTO</t>
   </si>
@@ -118,7 +118,7 @@
     <t>SVM-PC.DOCX</t>
   </si>
   <si>
-    <t>Mendoza P./JP, Huancas E./AF</t>
+    <t>Todos</t>
   </si>
   <si>
     <t>Silva B./PB</t>
@@ -158,6 +158,9 @@
     <t>Analista funcional / Tester</t>
   </si>
   <si>
+    <t>x</t>
+  </si>
+  <si>
     <t xml:space="preserve">Elaborar Documento de Lista de Requisitos </t>
   </si>
   <si>
@@ -251,7 +254,7 @@
     <t>Documento de Especificación de UI</t>
   </si>
   <si>
-    <t>SVM-DEUI.PDF</t>
+    <t>SVM-DEUI.DOCX</t>
   </si>
   <si>
     <t>Zapata A./PF ,Solis C./AP y Ramos R./DUX</t>
@@ -263,7 +266,7 @@
     <t>Documento de Guía de Estilos</t>
   </si>
   <si>
-    <t>SVM-GE.PDF</t>
+    <t>SVM-GE.DOCX</t>
   </si>
   <si>
     <t>S3 -S4</t>
@@ -314,18 +317,18 @@
     <t>Reporte del Primer Sprint Retrospective</t>
   </si>
   <si>
-    <t>SVM-RPS.DOCX</t>
+    <t>SVM-PSR.DOCX</t>
   </si>
   <si>
     <t>S5</t>
   </si>
   <si>
+    <t>Linea base 1</t>
+  </si>
+  <si>
     <t>Hito 1 - Fin del Sprint #1</t>
   </si>
   <si>
-    <t>Linea base 1</t>
-  </si>
-  <si>
     <t>Verificar y Actualizar la Lista de Requisitos del Software</t>
   </si>
   <si>
@@ -335,93 +338,72 @@
     <t>S5 - S6</t>
   </si>
   <si>
-    <t>Verificar y Actualizar documento de Especificación de la Base de Datos</t>
+    <t>Desarrollar Modulo de login</t>
+  </si>
+  <si>
+    <t>Modulo de login</t>
+  </si>
+  <si>
+    <t>Desarrollar Modulo de registro y perfil de usuario</t>
+  </si>
+  <si>
+    <t>Módulo de registo y perfil de usuario</t>
+  </si>
+  <si>
+    <t>Segundo Reporte del Estado Actual del Software</t>
+  </si>
+  <si>
+    <t>SVM-SREAS.DOCX</t>
+  </si>
+  <si>
+    <t>Mendoza P./JP, Huancas E./AF Solis C./AP</t>
+  </si>
+  <si>
+    <t>Reporte del Segundo Sprint Retrospective</t>
+  </si>
+  <si>
+    <t>SVM-SSR.DOCX</t>
+  </si>
+  <si>
+    <t>Mendoza P./JP, Huancas E./AF</t>
+  </si>
+  <si>
+    <t>S7</t>
+  </si>
+  <si>
+    <t>Linea base 2</t>
+  </si>
+  <si>
+    <t>Hito 2 - Fin del Sprint #2</t>
+  </si>
+  <si>
+    <t>Implementación de la Base de Datos</t>
+  </si>
+  <si>
+    <t>Implementacion de la Base de Datos</t>
+  </si>
+  <si>
+    <t>Desarrollo de los módulos de página principal</t>
+  </si>
+  <si>
+    <t>Módulo Principal</t>
+  </si>
+  <si>
+    <t>Verificar y finalizar documento de Lista de Requisitos del Software</t>
+  </si>
+  <si>
+    <t>S7 -S8 - S9</t>
+  </si>
+  <si>
+    <t>Verificar y finalizar documento de Especificación de UI</t>
+  </si>
+  <si>
+    <t>Verificar y finalizar documento de Especificación de la Base de Datos</t>
   </si>
   <si>
     <t>Documento de Especificación de la BD</t>
   </si>
   <si>
-    <t>SVM-DEBD.DOCX</t>
-  </si>
-  <si>
-    <t>HU_001 - Modular Información de la Página</t>
-  </si>
-  <si>
-    <t>Modulo Página Principal</t>
-  </si>
-  <si>
-    <t>Implementación de la Base de Datos</t>
-  </si>
-  <si>
-    <t>Implementacion de la Base de Datos</t>
-  </si>
-  <si>
-    <t>HU_002 - Modular Autenticación de Usuario (Registro)</t>
-  </si>
-  <si>
-    <t>Módulo de Autenticación de Usuario</t>
-  </si>
-  <si>
-    <t>Reporte del Desarrollo del Software</t>
-  </si>
-  <si>
-    <t>SVM-RDS.DOCX</t>
-  </si>
-  <si>
-    <t>Mendoza P./JP, Huancas E./AF Solis C./AP</t>
-  </si>
-  <si>
-    <t>Reporte del Segundo Sprint</t>
-  </si>
-  <si>
-    <t>SVM-RSVM.DOCX</t>
-  </si>
-  <si>
-    <t>S7</t>
-  </si>
-  <si>
-    <t>Hito 2 - Fin del Sprint #2</t>
-  </si>
-  <si>
-    <t>Linea base 2</t>
-  </si>
-  <si>
-    <t>HU_003 - Modular Usuario Cliente</t>
-  </si>
-  <si>
-    <t>Módulo de Usuario Cliente</t>
-  </si>
-  <si>
-    <t>Verificar y finalizar documento de Requisitos del Software</t>
-  </si>
-  <si>
-    <t>Documento de Especificación de Requisitos</t>
-  </si>
-  <si>
-    <t>SVM-DER.DOCX</t>
-  </si>
-  <si>
-    <t>S7 -S8 - S9</t>
-  </si>
-  <si>
-    <t>Verificar y finalizar documento de Especificación de UI</t>
-  </si>
-  <si>
-    <t>Verificar y finalizar documento de Especificación de la Base de Datos</t>
-  </si>
-  <si>
-    <t>Verificar y finalizar la Arquitectura y Diseño del Software</t>
-  </si>
-  <si>
-    <t>Verificar y finalizar la Lista de Historia de Usuarios</t>
-  </si>
-  <si>
-    <t>Lista de Historias de Usuario</t>
-  </si>
-  <si>
-    <t>SVM-LHU.DOCX</t>
-  </si>
-  <si>
     <t>Verificar y finalizar la Guía de Estilos</t>
   </si>
   <si>
@@ -446,16 +428,22 @@
     <t>Huancas E./T y Reyes M./AQA</t>
   </si>
   <si>
+    <t>Tercer Reporte del Estado Actual del Software</t>
+  </si>
+  <si>
+    <t>SVM-TREAS.DOCX</t>
+  </si>
+  <si>
     <t>Mendoza P./JP , Huancas E./T</t>
   </si>
   <si>
     <t>S9</t>
   </si>
   <si>
-    <t>Reporte del Tercer Sprint</t>
-  </si>
-  <si>
-    <t>SVM-RTS.DOCX</t>
+    <t>Reporte del Tercer Sprint Retrospective</t>
+  </si>
+  <si>
+    <t>SVM-TSR.DOCX</t>
   </si>
   <si>
     <t>Elaborar del acta de cierre del proyecto</t>
@@ -517,7 +505,7 @@
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="34">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -618,6 +606,23 @@
     <font>
       <b/>
       <sz val="10.0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FFFF0000"/>
+      <name val="&quot;Times New Roman&quot;"/>
+    </font>
+    <font>
+      <sz val="13.0"/>
+      <color rgb="FF980000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.0"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
     </font>
@@ -661,6 +666,25 @@
       <sz val="10.0"/>
       <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FFFFFFFF"/>
+      <name val="&quot;Helvetica Neue&quot;"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="&quot;Helvetica Neue&quot;"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FF000000"/>
+      <name val="&quot;Helvetica Neue&quot;"/>
+    </font>
+    <font>
+      <i/>
+      <color rgb="FF000000"/>
+      <name val="&quot;Helvetica Neue&quot;"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -713,8 +737,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF00FF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -724,7 +748,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="25">
     <border/>
     <border>
       <left style="thick">
@@ -903,6 +927,26 @@
       </bottom>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
@@ -920,10 +964,20 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -990,7 +1044,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="83">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1069,6 +1123,7 @@
     <xf borderId="13" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="7" fontId="6" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="12" fillId="4" fontId="16" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="13" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
@@ -1079,10 +1134,19 @@
     <xf borderId="0" fillId="0" fontId="13" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="12" fillId="7" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="12" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="12" fillId="4" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="13" fillId="4" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="11" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -1095,64 +1159,87 @@
     <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="5" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="5" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="12" fillId="4" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="4" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="11" fillId="2" fontId="19" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="2" fontId="20" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="2" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="2" fontId="22" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="12" fillId="2" fontId="23" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="13" fillId="2" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="2" fontId="19" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="12" fillId="2" fontId="22" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="14" fillId="2" fontId="19" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="14" fillId="2" fontId="22" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="5" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="5" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="11" fillId="5" fontId="21" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="12" fillId="4" fontId="18" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="5" fontId="21" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="16" fillId="4" fontId="22" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="11" fillId="5" fontId="24" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="12" fillId="4" fontId="21" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="15" fillId="4" fontId="25" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="12" fillId="2" fontId="26" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="13" fillId="2" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="16" fillId="2" fontId="28" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="14" fillId="2" fontId="27" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="12" fillId="2" fontId="23" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="2" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="16" fillId="6" fontId="29" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="11" fillId="8" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="11" fillId="8" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="11" fillId="8" fontId="24" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="17" fillId="8" fontId="24" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="18" fillId="8" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="16" fillId="4" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="19" fillId="4" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="19" fillId="4" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="16" fillId="4" fontId="29" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="11" fillId="8" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="17" fillId="8" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="20" fillId="4" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="21" fillId="2" fontId="22" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="22" fillId="2" fontId="22" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="22" fillId="2" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="23" fillId="2" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="2" fontId="24" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="24" fillId="2" fontId="27" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="8" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="11" fillId="8" fontId="21" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="8" fontId="21" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="8" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="17" fillId="4" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="18" fillId="2" fontId="19" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="19" fillId="2" fontId="19" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="19" fillId="2" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="20" fillId="2" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="19" fillId="2" fontId="19" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="21" fillId="2" fontId="24" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1375,10 +1462,10 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="15.88"/>
-    <col customWidth="1" min="2" max="2" width="64.63"/>
-    <col customWidth="1" min="3" max="3" width="52.13"/>
+    <col customWidth="1" min="2" max="2" width="55.88"/>
+    <col customWidth="1" min="3" max="3" width="38.25"/>
     <col customWidth="1" min="4" max="4" width="17.38"/>
-    <col customWidth="1" min="5" max="5" width="93.5"/>
+    <col customWidth="1" min="5" max="5" width="51.13"/>
     <col customWidth="1" min="6" max="7" width="10.38"/>
     <col customWidth="1" min="8" max="8" width="14.38"/>
     <col customWidth="1" hidden="1" min="9" max="9" width="10.13"/>
@@ -1580,14 +1667,14 @@
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="14"/>
+      <c r="A12" s="32"/>
       <c r="B12" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="34" t="s">
         <v>27</v>
       </c>
       <c r="E12" s="31" t="s">
@@ -1599,10 +1686,10 @@
       <c r="G12" s="26">
         <v>45393.0</v>
       </c>
-      <c r="H12" s="34">
+      <c r="H12" s="35">
         <v>1.0</v>
       </c>
-      <c r="J12" s="35"/>
+      <c r="J12" s="36"/>
       <c r="K12" s="31" t="s">
         <v>29</v>
       </c>
@@ -1611,14 +1698,14 @@
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="14"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="34" t="s">
         <v>33</v>
       </c>
       <c r="E13" s="31" t="s">
@@ -1630,13 +1717,13 @@
       <c r="G13" s="26">
         <v>45400.0</v>
       </c>
-      <c r="H13" s="34">
+      <c r="H13" s="35">
         <v>1.0</v>
       </c>
       <c r="I13" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="J13" s="35"/>
+      <c r="J13" s="36"/>
       <c r="K13" s="31" t="s">
         <v>35</v>
       </c>
@@ -1649,7 +1736,7 @@
       <c r="B14" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="38" t="s">
         <v>38</v>
       </c>
       <c r="D14" s="24" t="s">
@@ -1664,30 +1751,33 @@
       <c r="G14" s="26">
         <v>45407.0</v>
       </c>
-      <c r="H14" s="34">
+      <c r="H14" s="35">
         <v>1.0</v>
       </c>
       <c r="J14" s="5"/>
-      <c r="K14" s="31" t="s">
+      <c r="K14" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="L14" s="29" t="s">
+      <c r="L14" s="40" t="s">
         <v>40</v>
       </c>
+      <c r="M14" s="41" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="14"/>
-      <c r="B15" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="39" t="s">
+      <c r="A15" s="32"/>
+      <c r="B15" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="C15" s="43" t="s">
         <v>43</v>
       </c>
+      <c r="D15" s="34" t="s">
+        <v>44</v>
+      </c>
       <c r="E15" s="31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" s="26">
         <v>45400.0</v>
@@ -1695,27 +1785,27 @@
       <c r="G15" s="26">
         <v>45407.0</v>
       </c>
-      <c r="H15" s="34">
+      <c r="H15" s="35">
         <v>1.0</v>
       </c>
-      <c r="J15" s="35"/>
+      <c r="J15" s="36"/>
       <c r="K15" s="31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L15" s="29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="14"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="C16" s="43" t="s">
         <v>49</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>50</v>
       </c>
       <c r="E16" s="31" t="s">
         <v>23</v>
@@ -1726,27 +1816,27 @@
       <c r="G16" s="26">
         <v>45407.0</v>
       </c>
-      <c r="H16" s="34">
+      <c r="H16" s="35">
         <v>1.0</v>
       </c>
-      <c r="J16" s="35"/>
+      <c r="J16" s="36"/>
       <c r="K16" s="31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L16" s="29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="14"/>
+      <c r="A17" s="32"/>
       <c r="B17" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="43" t="s">
         <v>53</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>54</v>
       </c>
       <c r="E17" s="31" t="s">
         <v>29</v>
@@ -1757,27 +1847,27 @@
       <c r="G17" s="26">
         <v>45407.0</v>
       </c>
-      <c r="H17" s="34">
+      <c r="H17" s="35">
         <v>1.0</v>
       </c>
-      <c r="J17" s="35"/>
+      <c r="J17" s="36"/>
       <c r="K17" s="31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L17" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="14"/>
+      <c r="A18" s="32"/>
       <c r="B18" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="43" t="s">
         <v>57</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>58</v>
       </c>
       <c r="E18" s="31" t="s">
         <v>35</v>
@@ -1788,27 +1878,27 @@
       <c r="G18" s="26">
         <v>45407.0</v>
       </c>
-      <c r="H18" s="34">
+      <c r="H18" s="35">
         <v>1.0</v>
       </c>
-      <c r="J18" s="35"/>
+      <c r="J18" s="36"/>
       <c r="K18" s="31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L18" s="29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="14"/>
+      <c r="A19" s="32"/>
       <c r="B19" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="43" t="s">
         <v>61</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>62</v>
       </c>
       <c r="E19" s="31" t="s">
         <v>39</v>
@@ -1819,26 +1909,26 @@
       <c r="G19" s="26">
         <v>45407.0</v>
       </c>
-      <c r="H19" s="34">
+      <c r="H19" s="35">
         <v>1.0</v>
       </c>
-      <c r="J19" s="35"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="41"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="45"/>
     </row>
     <row r="20">
-      <c r="A20" s="14"/>
+      <c r="A20" s="32"/>
       <c r="B20" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="43" t="s">
         <v>63</v>
       </c>
+      <c r="D20" s="34" t="s">
+        <v>64</v>
+      </c>
       <c r="E20" s="31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F20" s="26">
         <v>45400.0</v>
@@ -1846,26 +1936,26 @@
       <c r="G20" s="26">
         <v>45407.0</v>
       </c>
-      <c r="H20" s="34">
+      <c r="H20" s="35">
         <v>1.0</v>
       </c>
-      <c r="J20" s="35"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="41"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="45"/>
     </row>
     <row r="21">
-      <c r="A21" s="14"/>
+      <c r="A21" s="32"/>
       <c r="B21" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="43" t="s">
         <v>65</v>
       </c>
+      <c r="D21" s="34" t="s">
+        <v>66</v>
+      </c>
       <c r="E21" s="31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F21" s="26">
         <v>45400.0</v>
@@ -1873,26 +1963,26 @@
       <c r="G21" s="26">
         <v>45407.0</v>
       </c>
-      <c r="H21" s="34">
+      <c r="H21" s="35">
         <v>1.0</v>
       </c>
-      <c r="J21" s="35"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="41"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="45"/>
     </row>
     <row r="22">
-      <c r="A22" s="14"/>
+      <c r="A22" s="32"/>
       <c r="B22" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="43" t="s">
         <v>67</v>
       </c>
+      <c r="D22" s="34" t="s">
+        <v>68</v>
+      </c>
       <c r="E22" s="31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F22" s="26">
         <v>45400.0</v>
@@ -1900,26 +1990,26 @@
       <c r="G22" s="26">
         <v>45407.0</v>
       </c>
-      <c r="H22" s="34">
+      <c r="H22" s="35">
         <v>1.0</v>
       </c>
-      <c r="J22" s="35"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="41"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="45"/>
     </row>
     <row r="23">
-      <c r="A23" s="14"/>
+      <c r="A23" s="32"/>
       <c r="B23" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="43" t="s">
         <v>69</v>
       </c>
+      <c r="D23" s="34" t="s">
+        <v>70</v>
+      </c>
       <c r="E23" s="31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F23" s="26">
         <v>45400.0</v>
@@ -1927,26 +2017,26 @@
       <c r="G23" s="26">
         <v>45407.0</v>
       </c>
-      <c r="H23" s="34">
+      <c r="H23" s="35">
         <v>1.0</v>
       </c>
-      <c r="J23" s="35"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="41"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="45"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="14"/>
-      <c r="B24" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="37" t="s">
+      <c r="A24" s="32"/>
+      <c r="B24" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="33" t="s">
+      <c r="C24" s="38" t="s">
         <v>72</v>
       </c>
+      <c r="D24" s="34" t="s">
+        <v>73</v>
+      </c>
       <c r="E24" s="31" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F24" s="26">
         <v>45400.0</v>
@@ -1954,23 +2044,23 @@
       <c r="G24" s="26">
         <v>45409.0</v>
       </c>
-      <c r="H24" s="34">
+      <c r="H24" s="35">
         <v>1.0</v>
       </c>
-      <c r="J24" s="35"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="41"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="45"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="14"/>
-      <c r="B25" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" s="37" t="s">
+      <c r="A25" s="32"/>
+      <c r="B25" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="33" t="s">
+      <c r="C25" s="38" t="s">
         <v>76</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>77</v>
       </c>
       <c r="E25" s="31" t="s">
         <v>35</v>
@@ -1981,29 +2071,29 @@
       <c r="G25" s="26">
         <v>45409.0</v>
       </c>
-      <c r="H25" s="34">
+      <c r="H25" s="35">
         <v>1.0</v>
       </c>
       <c r="I25" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="J25" s="35"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="41"/>
+        <v>78</v>
+      </c>
+      <c r="J25" s="36"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="45"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="14"/>
-      <c r="B26" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" s="43" t="s">
+      <c r="A26" s="32"/>
+      <c r="B26" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="33" t="s">
+      <c r="C26" s="47" t="s">
         <v>80</v>
       </c>
+      <c r="D26" s="34" t="s">
+        <v>81</v>
+      </c>
       <c r="E26" s="31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F26" s="26">
         <v>45409.0</v>
@@ -2011,25 +2101,25 @@
       <c r="G26" s="26">
         <v>45414.0</v>
       </c>
-      <c r="H26" s="34">
+      <c r="H26" s="35">
         <v>1.0</v>
       </c>
-      <c r="J26" s="35"/>
+      <c r="J26" s="36"/>
       <c r="K26" s="5"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="14"/>
-      <c r="B27" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" s="37" t="s">
+      <c r="A27" s="32"/>
+      <c r="B27" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="33" t="s">
+      <c r="C27" s="38" t="s">
         <v>84</v>
       </c>
+      <c r="D27" s="34" t="s">
+        <v>85</v>
+      </c>
       <c r="E27" s="31" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F27" s="26">
         <v>45409.0</v>
@@ -2037,25 +2127,25 @@
       <c r="G27" s="26">
         <v>45414.0</v>
       </c>
-      <c r="H27" s="34">
+      <c r="H27" s="35">
         <v>1.0</v>
       </c>
-      <c r="J27" s="35"/>
+      <c r="J27" s="36"/>
       <c r="K27" s="5"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="14"/>
+      <c r="A28" s="32"/>
       <c r="B28" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="D28" s="33" t="s">
+      <c r="C28" s="43" t="s">
         <v>88</v>
       </c>
+      <c r="D28" s="34" t="s">
+        <v>89</v>
+      </c>
       <c r="E28" s="31" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F28" s="26">
         <v>45409.0</v>
@@ -2063,25 +2153,25 @@
       <c r="G28" s="26">
         <v>45414.0</v>
       </c>
-      <c r="H28" s="34">
+      <c r="H28" s="35">
         <v>1.0</v>
       </c>
       <c r="I28" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="J28" s="35"/>
+        <v>91</v>
+      </c>
+      <c r="J28" s="36"/>
       <c r="K28" s="5"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="14"/>
+      <c r="A29" s="32"/>
       <c r="B29" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="C29" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="D29" s="33" t="s">
+      <c r="C29" s="43" t="s">
         <v>93</v>
+      </c>
+      <c r="D29" s="34" t="s">
+        <v>94</v>
       </c>
       <c r="E29" s="31" t="s">
         <v>23</v>
@@ -2092,45 +2182,45 @@
       <c r="G29" s="26">
         <v>45414.0</v>
       </c>
-      <c r="H29" s="34">
+      <c r="H29" s="35">
         <v>1.0</v>
       </c>
       <c r="I29" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="J29" s="35"/>
+        <v>95</v>
+      </c>
+      <c r="J29" s="36"/>
       <c r="K29" s="5"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="14"/>
-      <c r="B30" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="C30" s="45"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="47">
+      <c r="A30" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" s="49"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="51">
         <v>45386.0</v>
       </c>
-      <c r="G30" s="47">
+      <c r="G30" s="51">
         <v>45414.0</v>
       </c>
-      <c r="H30" s="48"/>
-      <c r="J30" s="35"/>
+      <c r="H30" s="52"/>
+      <c r="J30" s="36"/>
       <c r="K30" s="5"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="B31" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="C31" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" s="33" t="s">
+      <c r="A31" s="32"/>
+      <c r="B31" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" s="43" t="s">
         <v>43</v>
+      </c>
+      <c r="D31" s="34" t="s">
+        <v>44</v>
       </c>
       <c r="E31" s="31" t="s">
         <v>39</v>
@@ -2139,22 +2229,22 @@
         <v>45414.0</v>
       </c>
       <c r="G31" s="26">
-        <v>45421.0</v>
-      </c>
-      <c r="H31" s="34">
+        <v>45428.0</v>
+      </c>
+      <c r="H31" s="35">
         <v>1.0</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="14"/>
-      <c r="B32" s="50" t="s">
-        <v>98</v>
-      </c>
-      <c r="C32" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="D32" s="33" t="s">
+      <c r="A32" s="32"/>
+      <c r="B32" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="55" t="s">
         <v>72</v>
+      </c>
+      <c r="D32" s="34" t="s">
+        <v>73</v>
       </c>
       <c r="E32" s="31" t="s">
         <v>35</v>
@@ -2163,262 +2253,260 @@
         <v>45414.0</v>
       </c>
       <c r="G32" s="26">
-        <v>45421.0</v>
-      </c>
-      <c r="H32" s="34">
+        <v>45428.0</v>
+      </c>
+      <c r="H32" s="35">
         <v>1.0</v>
       </c>
       <c r="I32" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="J32" s="35"/>
+        <v>100</v>
+      </c>
+      <c r="J32" s="36"/>
       <c r="K32" s="5"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="14"/>
-      <c r="B33" s="52" t="s">
-        <v>100</v>
-      </c>
-      <c r="C33" s="51" t="s">
+      <c r="A33" s="32"/>
+      <c r="B33" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="D33" s="33" t="s">
+      <c r="C33" s="43" t="s">
         <v>102</v>
       </c>
+      <c r="D33" s="24" t="s">
+        <v>18</v>
+      </c>
       <c r="E33" s="31" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="F33" s="26">
-        <v>45421.0</v>
+        <v>45428.0</v>
       </c>
       <c r="G33" s="26">
-        <v>45428.0</v>
-      </c>
-      <c r="H33" s="34">
+        <v>45435.0</v>
+      </c>
+      <c r="H33" s="56">
         <v>1.0</v>
       </c>
-      <c r="J33" s="35"/>
+      <c r="J33" s="36"/>
       <c r="K33" s="5"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="14"/>
-      <c r="B34" s="22" t="s">
+      <c r="A34" s="32"/>
+      <c r="B34" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="C34" s="37" t="s">
+      <c r="C34" s="43" t="s">
         <v>104</v>
       </c>
       <c r="D34" s="24" t="s">
         <v>18</v>
       </c>
       <c r="E34" s="31" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="F34" s="26">
         <v>45428.0</v>
       </c>
       <c r="G34" s="26">
-        <v>45442.0</v>
-      </c>
-      <c r="H34" s="53">
-        <v>0.0</v>
-      </c>
-      <c r="J34" s="35"/>
+        <v>45435.0</v>
+      </c>
+      <c r="H34" s="35">
+        <v>1.0</v>
+      </c>
+      <c r="J34" s="36"/>
       <c r="K34" s="5"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="14"/>
-      <c r="B35" s="38" t="s">
+      <c r="A35" s="32"/>
+      <c r="B35" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="C35" s="39" t="s">
+      <c r="D35" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="D35" s="33" t="s">
-        <v>18</v>
-      </c>
       <c r="E35" s="31" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="F35" s="26">
         <v>45428.0</v>
       </c>
       <c r="G35" s="26">
-        <v>45442.0</v>
-      </c>
-      <c r="H35" s="53">
-        <v>0.0</v>
-      </c>
-      <c r="J35" s="35"/>
+        <v>45435.0</v>
+      </c>
+      <c r="H35" s="35">
+        <v>1.0</v>
+      </c>
+      <c r="J35" s="36"/>
       <c r="K35" s="5"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="14"/>
+      <c r="A36" s="32"/>
       <c r="B36" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="C36" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="D36" s="24" t="s">
-        <v>18</v>
+      <c r="D36" s="34" t="s">
+        <v>109</v>
       </c>
       <c r="E36" s="31" t="s">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="F36" s="26">
         <v>45428.0</v>
       </c>
       <c r="G36" s="26">
-        <v>45442.0</v>
-      </c>
-      <c r="H36" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="J36" s="35"/>
+        <v>45435.0</v>
+      </c>
+      <c r="H36" s="35">
+        <v>1.0</v>
+      </c>
+      <c r="I36" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="J36" s="36"/>
       <c r="K36" s="5"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="14"/>
-      <c r="B37" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="C37" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="D37" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="E37" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="F37" s="26">
+      <c r="A37" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" s="57"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="59">
+        <v>45414.0</v>
+      </c>
+      <c r="G37" s="59">
         <v>45435.0</v>
       </c>
-      <c r="G37" s="26">
-        <v>45442.0</v>
-      </c>
-      <c r="H37" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="J37" s="35"/>
+      <c r="H37" s="60"/>
+      <c r="J37" s="36"/>
       <c r="K37" s="5"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="14"/>
-      <c r="B38" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="C38" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="D38" s="33" t="s">
-        <v>113</v>
+      <c r="A38" s="32"/>
+      <c r="B38" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="D38" s="34" t="s">
+        <v>18</v>
       </c>
       <c r="E38" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="F38" s="26">
+        <v>82</v>
+      </c>
+      <c r="F38" s="61">
         <v>45435.0</v>
       </c>
       <c r="G38" s="26">
-        <v>45442.0</v>
-      </c>
-      <c r="H38" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="I38" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="J38" s="35"/>
-      <c r="K38" s="5"/>
+        <v>45449.0</v>
+      </c>
+      <c r="H38" s="56">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="14"/>
-      <c r="B39" s="44" t="s">
-        <v>115</v>
-      </c>
-      <c r="C39" s="54"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="47">
-        <v>45414.0</v>
-      </c>
-      <c r="G39" s="47">
-        <v>45442.0</v>
-      </c>
-      <c r="H39" s="56"/>
-      <c r="J39" s="35"/>
-      <c r="K39" s="5"/>
+      <c r="A39" s="32"/>
+      <c r="B39" s="62" t="s">
+        <v>116</v>
+      </c>
+      <c r="C39" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" s="61">
+        <v>45435.0</v>
+      </c>
+      <c r="G39" s="26">
+        <v>45449.0</v>
+      </c>
+      <c r="H39" s="35">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="B40" s="57" t="s">
-        <v>117</v>
-      </c>
-      <c r="C40" s="37" t="s">
+      <c r="A40" s="32"/>
+      <c r="B40" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="D40" s="24" t="s">
-        <v>18</v>
+      <c r="C40" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" s="34" t="s">
+        <v>44</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="F40" s="26">
-        <v>45442.0</v>
+        <v>55</v>
+      </c>
+      <c r="F40" s="61">
+        <v>45435.0</v>
       </c>
       <c r="G40" s="26">
         <v>45449.0</v>
       </c>
-      <c r="H40" s="27">
-        <v>0.0</v>
-      </c>
+      <c r="H40" s="35">
+        <v>1.0</v>
+      </c>
+      <c r="I40" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="J40" s="36"/>
+      <c r="K40" s="5"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="14"/>
-      <c r="B41" s="58" t="s">
-        <v>119</v>
-      </c>
-      <c r="C41" s="37" t="s">
+      <c r="A41" s="32"/>
+      <c r="B41" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="D41" s="33" t="s">
-        <v>121</v>
+      <c r="C41" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41" s="34" t="s">
+        <v>73</v>
       </c>
       <c r="E41" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="F41" s="26">
-        <v>45442.0</v>
+        <v>35</v>
+      </c>
+      <c r="F41" s="61">
+        <v>45435.0</v>
       </c>
       <c r="G41" s="26">
         <v>45449.0</v>
       </c>
-      <c r="H41" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="I41" s="28" t="s">
+      <c r="H41" s="35">
+        <v>1.0</v>
+      </c>
+      <c r="J41" s="36"/>
+      <c r="K41" s="5"/>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="32"/>
+      <c r="B42" s="65" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="J41" s="35"/>
-      <c r="K41" s="5"/>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="14"/>
-      <c r="B42" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="C42" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="D42" s="33" t="s">
-        <v>72</v>
+      <c r="D42" s="34" t="s">
+        <v>81</v>
       </c>
       <c r="E42" s="31" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="F42" s="26">
         <v>45442.0</v>
@@ -2426,144 +2514,162 @@
       <c r="G42" s="26">
         <v>45449.0</v>
       </c>
-      <c r="H42" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="J42" s="35"/>
+      <c r="H42" s="35">
+        <v>1.0</v>
+      </c>
+      <c r="J42" s="36"/>
       <c r="K42" s="5"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="14"/>
-      <c r="B43" s="59" t="s">
+      <c r="A43" s="32"/>
+      <c r="B43" s="66" t="s">
+        <v>123</v>
+      </c>
+      <c r="C43" s="67" t="s">
+        <v>76</v>
+      </c>
+      <c r="D43" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="E43" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="F43" s="61">
+        <v>45442.0</v>
+      </c>
+      <c r="G43" s="61">
+        <v>45449.0</v>
+      </c>
+      <c r="H43" s="70">
+        <v>1.0</v>
+      </c>
+      <c r="J43" s="36"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5"/>
+      <c r="W43" s="5"/>
+      <c r="X43" s="5"/>
+      <c r="Y43" s="5"/>
+      <c r="Z43" s="5"/>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="32"/>
+      <c r="B44" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="C43" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="D43" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="E43" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="F43" s="26">
-        <v>45442.0</v>
-      </c>
-      <c r="G43" s="26">
+      <c r="C44" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="D44" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="E44" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="F44" s="26">
         <v>45449.0</v>
       </c>
-      <c r="H43" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="J43" s="35"/>
-      <c r="K43" s="5"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="14"/>
-      <c r="B44" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="C44" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="D44" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="E44" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="F44" s="26">
-        <v>45442.0</v>
-      </c>
       <c r="G44" s="26">
+        <v>45456.0</v>
+      </c>
+      <c r="H44" s="35">
+        <v>1.0</v>
+      </c>
+      <c r="J44" s="36"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
+      <c r="W44" s="5"/>
+      <c r="X44" s="5"/>
+      <c r="Y44" s="5"/>
+      <c r="Z44" s="5"/>
+    </row>
+    <row r="45" ht="14.25" customHeight="1">
+      <c r="A45" s="14"/>
+      <c r="B45" s="71" t="s">
+        <v>127</v>
+      </c>
+      <c r="C45" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="D45" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="E45" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="F45" s="26">
         <v>45449.0</v>
       </c>
-      <c r="H44" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="J44" s="35"/>
-      <c r="K44" s="5"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="14"/>
-      <c r="B45" s="57" t="s">
-        <v>126</v>
-      </c>
-      <c r="C45" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="D45" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="E45" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="F45" s="26">
-        <v>45442.0</v>
-      </c>
       <c r="G45" s="26">
+        <v>45456.0</v>
+      </c>
+      <c r="H45" s="35">
+        <v>1.0</v>
+      </c>
+      <c r="J45" s="36"/>
+      <c r="K45" s="5"/>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="32"/>
+      <c r="B46" s="71" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="D46" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="E46" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="F46" s="26">
         <v>45449.0</v>
       </c>
-      <c r="H45" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="J45" s="35"/>
-      <c r="K45" s="5"/>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="14"/>
-      <c r="B46" s="57" t="s">
-        <v>129</v>
-      </c>
-      <c r="C46" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="D46" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="E46" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="F46" s="26">
-        <v>45442.0</v>
-      </c>
       <c r="G46" s="26">
-        <v>45449.0</v>
-      </c>
-      <c r="H46" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="J46" s="35"/>
+        <v>45456.0</v>
+      </c>
+      <c r="H46" s="35">
+        <v>1.0</v>
+      </c>
+      <c r="I46" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="J46" s="36"/>
       <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
-      <c r="O46" s="5"/>
-      <c r="P46" s="5"/>
-      <c r="Q46" s="5"/>
-      <c r="R46" s="5"/>
-      <c r="S46" s="5"/>
-      <c r="T46" s="5"/>
-      <c r="U46" s="5"/>
-      <c r="V46" s="5"/>
-      <c r="W46" s="5"/>
-      <c r="X46" s="5"/>
-      <c r="Y46" s="5"/>
-      <c r="Z46" s="5"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="14"/>
-      <c r="B47" s="57" t="s">
-        <v>130</v>
-      </c>
-      <c r="C47" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="D47" s="33" t="s">
-        <v>132</v>
+      <c r="A47" s="32"/>
+      <c r="B47" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="D47" s="34" t="s">
+        <v>136</v>
       </c>
       <c r="E47" s="31" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="F47" s="26">
         <v>45449.0</v>
@@ -2571,40 +2677,25 @@
       <c r="G47" s="26">
         <v>45456.0</v>
       </c>
-      <c r="H47" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="J47" s="35"/>
+      <c r="H47" s="35">
+        <v>1.0</v>
+      </c>
+      <c r="J47" s="36"/>
       <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="5"/>
-      <c r="P47" s="5"/>
-      <c r="Q47" s="5"/>
-      <c r="R47" s="5"/>
-      <c r="S47" s="5"/>
-      <c r="T47" s="5"/>
-      <c r="U47" s="5"/>
-      <c r="V47" s="5"/>
-      <c r="W47" s="5"/>
-      <c r="X47" s="5"/>
-      <c r="Y47" s="5"/>
-      <c r="Z47" s="5"/>
-    </row>
-    <row r="48" ht="14.25" customHeight="1">
-      <c r="A48" s="14"/>
-      <c r="B48" s="57" t="s">
-        <v>133</v>
-      </c>
-      <c r="C48" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="D48" s="33" t="s">
-        <v>135</v>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="32"/>
+      <c r="B48" s="72" t="s">
+        <v>137</v>
+      </c>
+      <c r="C48" s="73" t="s">
+        <v>138</v>
+      </c>
+      <c r="D48" s="34" t="s">
+        <v>139</v>
       </c>
       <c r="E48" s="31" t="s">
-        <v>136</v>
+        <v>23</v>
       </c>
       <c r="F48" s="26">
         <v>45449.0</v>
@@ -2612,127 +2703,61 @@
       <c r="G48" s="26">
         <v>45456.0</v>
       </c>
-      <c r="H48" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="J48" s="35"/>
+      <c r="H48" s="35">
+        <v>1.0</v>
+      </c>
+      <c r="I48" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="J48" s="36"/>
       <c r="K48" s="5"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="14"/>
-      <c r="B49" s="57" t="s">
-        <v>86</v>
-      </c>
-      <c r="C49" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="D49" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="E49" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="F49" s="26">
-        <v>45449.0</v>
-      </c>
-      <c r="G49" s="26">
+      <c r="A49" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B49" s="74" t="s">
+        <v>142</v>
+      </c>
+      <c r="C49" s="75"/>
+      <c r="D49" s="76"/>
+      <c r="E49" s="77"/>
+      <c r="F49" s="59">
+        <v>45435.0</v>
+      </c>
+      <c r="G49" s="59">
         <v>45456.0</v>
       </c>
-      <c r="H49" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="I49" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="J49" s="35"/>
+      <c r="H49" s="78"/>
+      <c r="J49" s="36"/>
       <c r="K49" s="5"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="14"/>
-      <c r="B50" s="57" t="s">
-        <v>91</v>
-      </c>
-      <c r="C50" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="D50" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="E50" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="F50" s="26">
-        <v>45449.0</v>
-      </c>
-      <c r="G50" s="26">
-        <v>45456.0</v>
-      </c>
-      <c r="H50" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="J50" s="35"/>
-      <c r="K50" s="5"/>
+      <c r="B50" s="79"/>
+      <c r="C50" s="79"/>
+      <c r="D50" s="79"/>
+      <c r="E50" s="79"/>
+      <c r="F50" s="80"/>
+      <c r="G50" s="80"/>
+      <c r="H50" s="80"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="14"/>
-      <c r="B51" s="60" t="s">
-        <v>141</v>
-      </c>
-      <c r="C51" s="61" t="s">
-        <v>142</v>
-      </c>
-      <c r="D51" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="E51" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="F51" s="26">
-        <v>45449.0</v>
-      </c>
-      <c r="G51" s="26">
-        <v>45456.0</v>
-      </c>
-      <c r="H51" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="I51" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="J51" s="35"/>
-      <c r="K51" s="5"/>
+      <c r="B51" s="81"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="B52" s="62" t="s">
-        <v>146</v>
-      </c>
-      <c r="C52" s="63"/>
-      <c r="D52" s="64"/>
-      <c r="E52" s="65"/>
-      <c r="F52" s="47">
-        <v>45442.0</v>
-      </c>
-      <c r="G52" s="66">
-        <v>45456.0</v>
-      </c>
-      <c r="H52" s="67"/>
-      <c r="J52" s="35"/>
-      <c r="K52" s="5"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="B53" s="68"/>
-      <c r="C53" s="68"/>
-      <c r="D53" s="68"/>
-      <c r="E53" s="68"/>
-      <c r="F53" s="69"/>
-      <c r="G53" s="69"/>
-      <c r="H53" s="69"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="B54" s="70"/>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
@@ -3712,21 +3737,9 @@
       <c r="G249" s="7"/>
       <c r="H249" s="7"/>
     </row>
-    <row r="250" ht="15.75" customHeight="1">
-      <c r="F250" s="7"/>
-      <c r="G250" s="7"/>
-      <c r="H250" s="7"/>
-    </row>
-    <row r="251" ht="15.75" customHeight="1">
-      <c r="F251" s="7"/>
-      <c r="G251" s="7"/>
-      <c r="H251" s="7"/>
-    </row>
-    <row r="252" ht="15.75" customHeight="1">
-      <c r="F252" s="7"/>
-      <c r="G252" s="7"/>
-      <c r="H252" s="7"/>
-    </row>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
     <row r="253" ht="15.75" customHeight="1"/>
     <row r="254" ht="15.75" customHeight="1"/>
     <row r="255" ht="15.75" customHeight="1"/>
@@ -4480,16 +4493,13 @@
     <row r="1003" ht="15.75" customHeight="1"/>
     <row r="1004" ht="15.75" customHeight="1"/>
     <row r="1005" ht="15.75" customHeight="1"/>
-    <row r="1006" ht="15.75" customHeight="1"/>
-    <row r="1007" ht="15.75" customHeight="1"/>
-    <row r="1008" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="I38:I40"/>
-    <mergeCell ref="I41:I48"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="I51:I53"/>
-    <mergeCell ref="I32:I37"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="I48:I50"/>
+    <mergeCell ref="I40:I45"/>
+    <mergeCell ref="I36:I39"/>
+    <mergeCell ref="I32:I35"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="K9:L9"/>
@@ -4524,7 +4534,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="B2" s="71"/>
+      <c r="B2" s="82"/>
       <c r="C2" s="14"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
@@ -4543,7 +4553,7 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="B5" s="29" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C5" s="29" t="s">
         <v>24</v>
@@ -4551,15 +4561,15 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="29" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="B7" s="29" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C7" s="29" t="s">
         <v>36</v>
@@ -4567,42 +4577,45 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="B8" s="29" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C8" s="29" t="s">
         <v>40</v>
       </c>
+      <c r="D8" s="41" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="B9" s="29" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="B10" s="29" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="B11" s="29" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="B12" s="29" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1"/>
